--- a/biology/Histoire de la zoologie et de la botanique/Gaston_Ruter/Gaston_Ruter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gaston_Ruter/Gaston_Ruter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaston Ruter (Paris 5e, 2 novembre 1898 - Savigny-sur-Orge, 2 novembre 1979)[1] est un entomologiste français, spécialisé dans les coléoptères Cetoniidae[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaston Ruter (Paris 5e, 2 novembre 1898 - Savigny-sur-Orge, 2 novembre 1979) est un entomologiste français, spécialisé dans les coléoptères Cetoniidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une nécrologie a été publiée par Paulian &amp; Decarpentries[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une nécrologie a été publiée par Paulian &amp; Decarpentries. 
 Entomologiste amateur, il s'est toujours intéressé à la faune de France dont il a une collection importante, surtout dans les microcoléoptères dont il prépare avec précision des minuscules genitalia.
 Il étudie tout d'abord les Curculionides du genre Bagous. Puis, avec l'aide de Bourgoin, ses recherches sont axées sur l'étude des cétoines exotiques.
 Sa collection se trouve au Muséum national d'histoire naturelle de Paris.
@@ -545,10 +559,12 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liste de ses travaux a été établie par Menier[4]
-Il manque à cette énumération un travail paru en 1971[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste de ses travaux a été établie par Menier
+Il manque à cette énumération un travail paru en 1971.
 En fait il publie relativement peu par rapport à l'ensemble de ses découvertes. Nombre de taxa sont restés in litteris. Ses notes sont toujours très détaillées, accompagnées de nombreuses figures et de références.
 Il est élu président de la Société entomologique de France en 1956.
 </t>
@@ -579,9 +595,11 @@
           <t>Taxa</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une liste, non exhaustive, cite 74 des taxa qu'il a décrits[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une liste, non exhaustive, cite 74 des taxa qu'il a décrits.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Noms de genre et d'espèces dédiés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">48 taxa lui ont été dédiés :
 Acalles ruteri Roudier, 1954
